--- a/02_daten/05_tabellen/titanic.xlsx
+++ b/02_daten/05_tabellen/titanic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2f0ec7fd2bf0214/Desktop/Kurse/ML_Intro/02_daten/05_tabellen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{ED225C1C-6728-4564-9388-9615EF11E4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B545C3AA-A4B7-4568-917C-CC892B916B42}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{ED225C1C-6728-4564-9388-9615EF11E4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6611E213-367A-4092-A099-C5E3D804B094}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{C1CE6220-0966-42C6-BA8D-057C18752CFF}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9176" uniqueCount="3176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9175" uniqueCount="3176">
   <si>
     <t>pclass</t>
   </si>
@@ -9650,6 +9650,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10023,7 +10027,7 @@
   <dimension ref="A1:M1310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10121,8 +10125,8 @@
       <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
-        <v>18</v>
+      <c r="M2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
